--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\GBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC742D-2BD5-4C3C-8245-550944F0C0CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76BDA5-6B6E-4B61-B1CD-00B7347D6B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -810,11 +810,13 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1656,27 +1658,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,98 +1686,98 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>185</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1000</v>
       </c>
@@ -1797,14 +1799,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="10" t="s">
         <v>128</v>
       </c>
@@ -1911,8 +1913,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1925,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1949,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1958,7 +1960,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1966,12 +1968,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2191,18 +2193,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2315,7 +2317,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
@@ -2993,7 +2995,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -3445,12 +3447,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -3902,7 +3904,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -4015,7 +4017,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -4128,12 +4130,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -4472,7 +4474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -4585,7 +4587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4698,7 +4700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -5376,12 +5378,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6737,12 +6739,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>77</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>83</v>
       </c>
@@ -7759,7 +7761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -7872,7 +7874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>85</v>
       </c>
@@ -7985,12 +7987,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
         <v>88</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>89</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -8329,7 +8331,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>93</v>
       </c>
@@ -8442,7 +8444,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>95</v>
       </c>
@@ -8555,7 +8557,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>96</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>98</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>99</v>
       </c>
@@ -8894,8 +8896,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="47" t="s">
         <v>101</v>
       </c>
@@ -8935,137 +8937,137 @@
       <c r="AJ87" s="47"/>
       <c r="AK87" s="47"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="8" t="s">
         <v>143</v>
       </c>
@@ -9089,14 +9091,14 @@
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" style="25" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="25"/>
+    <col min="3" max="16384" width="9.1796875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="26" t="s">
         <v>174</v>
       </c>
@@ -9191,8 +9193,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
@@ -9203,7 +9205,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
@@ -9216,7 +9218,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
@@ -9227,7 +9229,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
@@ -9238,10 +9240,10 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
@@ -9252,7 +9254,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -9296,7 +9298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="27" t="s">
         <v>12</v>
       </c>
@@ -9394,18 +9396,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -9506,7 +9508,7 @@
         <v>-2.3927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="28" t="s">
         <v>17</v>
       </c>
@@ -9607,7 +9609,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
@@ -9708,7 +9710,7 @@
         <v>1.8599000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28" t="s">
         <v>21</v>
       </c>
@@ -9809,7 +9811,7 @@
         <v>2.8872999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>-5.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
@@ -10011,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
@@ -10112,7 +10114,7 @@
         <v>6.9309999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
@@ -10213,7 +10215,7 @@
         <v>4.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="28" t="s">
         <v>31</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>3.2424000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="28" t="s">
         <v>33</v>
       </c>
@@ -10415,7 +10417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>36</v>
       </c>
@@ -10516,12 +10518,12 @@
         <v>1.7170999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>39</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>-5.385E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>41</v>
       </c>
@@ -10723,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>43</v>
       </c>
@@ -10824,7 +10826,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>44</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>45</v>
       </c>
@@ -11026,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>46</v>
       </c>
@@ -11127,13 +11129,13 @@
         <v>-5.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:33" ht="12" x14ac:dyDescent="0.3">
       <c r="B36" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="28" t="s">
         <v>48</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="28" t="s">
         <v>49</v>
       </c>
@@ -11335,7 +11337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="28" t="s">
         <v>50</v>
       </c>
@@ -11436,7 +11438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="28" t="s">
         <v>51</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="28" t="s">
         <v>52</v>
       </c>
@@ -11638,7 +11640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="28" t="s">
         <v>54</v>
       </c>
@@ -11739,7 +11741,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="28" t="s">
         <v>55</v>
       </c>
@@ -11840,7 +11842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>56</v>
       </c>
@@ -11941,7 +11943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>57</v>
       </c>
@@ -12042,7 +12044,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="28" t="s">
         <v>58</v>
       </c>
@@ -12143,7 +12145,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="12" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>60</v>
       </c>
@@ -12244,12 +12246,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="12" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="28" t="s">
         <v>62</v>
       </c>
@@ -12350,7 +12352,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="28" t="s">
         <v>63</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
         <v>64</v>
       </c>
@@ -12552,7 +12554,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="28" t="s">
         <v>65</v>
       </c>
@@ -12653,7 +12655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="28" t="s">
         <v>66</v>
       </c>
@@ -12754,7 +12756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="28" t="s">
         <v>67</v>
       </c>
@@ -12855,7 +12857,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="28" t="s">
         <v>68</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="28" t="s">
         <v>69</v>
       </c>
@@ -13057,7 +13059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="28" t="s">
         <v>70</v>
       </c>
@@ -13158,7 +13160,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="28" t="s">
         <v>71</v>
       </c>
@@ -13259,7 +13261,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28" t="s">
         <v>72</v>
       </c>
@@ -13360,7 +13362,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="28" t="s">
         <v>73</v>
       </c>
@@ -13461,12 +13463,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="28" t="s">
         <v>75</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="28" t="s">
         <v>76</v>
       </c>
@@ -13668,7 +13670,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
         <v>77</v>
       </c>
@@ -13769,7 +13771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="28" t="s">
         <v>78</v>
       </c>
@@ -13870,7 +13872,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="28" t="s">
         <v>79</v>
       </c>
@@ -13971,7 +13973,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>80</v>
       </c>
@@ -14072,7 +14074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
@@ -14173,7 +14175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
@@ -14274,7 +14276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
@@ -14375,7 +14377,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
@@ -14476,8 +14478,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28" t="s">
         <v>85</v>
       </c>
@@ -14578,12 +14580,12 @@
         <v>1.6822E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="28" t="s">
         <v>88</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>-5.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="28" t="s">
         <v>89</v>
       </c>
@@ -14785,7 +14787,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="28" t="s">
         <v>91</v>
       </c>
@@ -14886,7 +14888,7 @@
         <v>1.1887E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="28" t="s">
         <v>93</v>
       </c>
@@ -14987,7 +14989,7 @@
         <v>5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -15088,7 +15090,7 @@
         <v>4.9362000000000003E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>1.895E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
         <v>98</v>
       </c>
@@ -15290,7 +15292,7 @@
         <v>3.9856000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -15391,133 +15393,133 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="12" x14ac:dyDescent="0.3">
       <c r="B92" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="2:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:33" ht="12" x14ac:dyDescent="0.3">
       <c r="B101" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="2:33" ht="12" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:33" ht="12" x14ac:dyDescent="0.3">
       <c r="B102" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="48"/>
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
@@ -15551,16 +15553,16 @@
       <c r="AF112" s="48"/>
       <c r="AG112" s="48"/>
     </row>
-    <row r="141" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B308" s="48"/>
       <c r="C308" s="48"/>
       <c r="D308" s="48"/>
@@ -15594,7 +15596,7 @@
       <c r="AF308" s="48"/>
       <c r="AG308" s="48"/>
     </row>
-    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B511" s="48"/>
       <c r="C511" s="48"/>
       <c r="D511" s="48"/>
@@ -15628,7 +15630,7 @@
       <c r="AF511" s="48"/>
       <c r="AG511" s="48"/>
     </row>
-    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B712" s="48"/>
       <c r="C712" s="48"/>
       <c r="D712" s="48"/>
@@ -15662,7 +15664,7 @@
       <c r="AF712" s="48"/>
       <c r="AG712" s="48"/>
     </row>
-    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B887" s="48"/>
       <c r="C887" s="48"/>
       <c r="D887" s="48"/>
@@ -15696,7 +15698,7 @@
       <c r="AF887" s="48"/>
       <c r="AG887" s="48"/>
     </row>
-    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1100" s="48"/>
       <c r="C1100" s="48"/>
       <c r="D1100" s="48"/>
@@ -15730,7 +15732,7 @@
       <c r="AF1100" s="48"/>
       <c r="AG1100" s="48"/>
     </row>
-    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1227" s="48"/>
       <c r="C1227" s="48"/>
       <c r="D1227" s="48"/>
@@ -15764,7 +15766,7 @@
       <c r="AF1227" s="48"/>
       <c r="AG1227" s="48"/>
     </row>
-    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1390" s="48"/>
       <c r="C1390" s="48"/>
       <c r="D1390" s="48"/>
@@ -15798,7 +15800,7 @@
       <c r="AF1390" s="48"/>
       <c r="AG1390" s="48"/>
     </row>
-    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1502" s="48"/>
       <c r="C1502" s="48"/>
       <c r="D1502" s="48"/>
@@ -15832,7 +15834,7 @@
       <c r="AF1502" s="48"/>
       <c r="AG1502" s="48"/>
     </row>
-    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1604" s="48"/>
       <c r="C1604" s="48"/>
       <c r="D1604" s="48"/>
@@ -15866,7 +15868,7 @@
       <c r="AF1604" s="48"/>
       <c r="AG1604" s="48"/>
     </row>
-    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1698" s="48"/>
       <c r="C1698" s="48"/>
       <c r="D1698" s="48"/>
@@ -15900,7 +15902,7 @@
       <c r="AF1698" s="48"/>
       <c r="AG1698" s="48"/>
     </row>
-    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1945" s="48"/>
       <c r="C1945" s="48"/>
       <c r="D1945" s="48"/>
@@ -15934,7 +15936,7 @@
       <c r="AF1945" s="48"/>
       <c r="AG1945" s="48"/>
     </row>
-    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2031" s="48"/>
       <c r="C2031" s="48"/>
       <c r="D2031" s="48"/>
@@ -15968,7 +15970,7 @@
       <c r="AF2031" s="48"/>
       <c r="AG2031" s="48"/>
     </row>
-    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2153" s="48"/>
       <c r="C2153" s="48"/>
       <c r="D2153" s="48"/>
@@ -16002,7 +16004,7 @@
       <c r="AF2153" s="48"/>
       <c r="AG2153" s="48"/>
     </row>
-    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2317" s="48"/>
       <c r="C2317" s="48"/>
       <c r="D2317" s="48"/>
@@ -16036,7 +16038,7 @@
       <c r="AF2317" s="48"/>
       <c r="AG2317" s="48"/>
     </row>
-    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2419" s="48"/>
       <c r="C2419" s="48"/>
       <c r="D2419" s="48"/>
@@ -16070,7 +16072,7 @@
       <c r="AF2419" s="48"/>
       <c r="AG2419" s="48"/>
     </row>
-    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2509" s="48"/>
       <c r="C2509" s="48"/>
       <c r="D2509" s="48"/>
@@ -16104,7 +16106,7 @@
       <c r="AF2509" s="48"/>
       <c r="AG2509" s="48"/>
     </row>
-    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2598" s="48"/>
       <c r="C2598" s="48"/>
       <c r="D2598" s="48"/>
@@ -16138,7 +16140,7 @@
       <c r="AF2598" s="48"/>
       <c r="AG2598" s="48"/>
     </row>
-    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2719" s="48"/>
       <c r="C2719" s="48"/>
       <c r="D2719" s="48"/>
@@ -16172,7 +16174,7 @@
       <c r="AF2719" s="48"/>
       <c r="AG2719" s="48"/>
     </row>
-    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2837" s="48"/>
       <c r="C2837" s="48"/>
       <c r="D2837" s="48"/>
@@ -16208,14 +16210,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2719:AG2719"/>
-    <mergeCell ref="B2837:AG2837"/>
-    <mergeCell ref="B2031:AG2031"/>
-    <mergeCell ref="B2153:AG2153"/>
-    <mergeCell ref="B2317:AG2317"/>
-    <mergeCell ref="B2419:AG2419"/>
-    <mergeCell ref="B2509:AG2509"/>
-    <mergeCell ref="B2598:AG2598"/>
     <mergeCell ref="B1945:AG1945"/>
     <mergeCell ref="B112:AG112"/>
     <mergeCell ref="B308:AG308"/>
@@ -16228,6 +16222,14 @@
     <mergeCell ref="B1502:AG1502"/>
     <mergeCell ref="B1604:AG1604"/>
     <mergeCell ref="B1698:AG1698"/>
+    <mergeCell ref="B2719:AG2719"/>
+    <mergeCell ref="B2837:AG2837"/>
+    <mergeCell ref="B2031:AG2031"/>
+    <mergeCell ref="B2153:AG2153"/>
+    <mergeCell ref="B2317:AG2317"/>
+    <mergeCell ref="B2419:AG2419"/>
+    <mergeCell ref="B2509:AG2509"/>
+    <mergeCell ref="B2598:AG2598"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -16245,13 +16247,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>124</v>
       </c>
@@ -16259,7 +16261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -16268,7 +16270,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
     </row>
   </sheetData>
@@ -16284,14 +16286,16 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>181</v>
       </c>
@@ -16299,12 +16303,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\GBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76BDA5-6B6E-4B61-B1CD-00B7347D6B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA060A-0CE5-4A69-9A11-02A48A4DAA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1662,23 +1662,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="60.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,98 +1686,98 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>185</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1000</v>
       </c>
@@ -1799,14 +1799,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="38" max="38" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
         <v>128</v>
       </c>
@@ -1913,8 +1913,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1925,7 +1925,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1968,12 +1968,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2193,18 +2193,18 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>-1.4527999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>-1.2109E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>2.2502999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>8.456E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>23</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>-5.6340000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:37" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>0.123014</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>5.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>2.3185000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>33</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -3447,12 +3447,12 @@
         <v>1.1344E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>39</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>-3.3660000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>-9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>-9.68E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -4130,12 +4130,12 @@
         <v>-4.06E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
@@ -5378,12 +5378,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>62</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>63</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>64</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>65</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>66</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>67</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>68</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>69</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>70</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>71</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>72</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
@@ -6739,12 +6739,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>77</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>83</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>85</v>
       </c>
@@ -7987,12 +7987,12 @@
         <v>1.1053E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>88</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>-9.3640000000000008E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>89</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>-2.039E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>2.5253000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>93</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>-7.0799999999999997E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>95</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>6.0502E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>96</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>4.0169999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>98</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>4.7788999999999998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>99</v>
       </c>
@@ -8896,8 +8896,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="47" t="s">
         <v>101</v>
       </c>
@@ -8937,137 +8937,137 @@
       <c r="AJ87" s="47"/>
       <c r="AK87" s="47"/>
     </row>
-    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>143</v>
       </c>
@@ -9091,14 +9091,14 @@
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.453125" style="25" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="25" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="25" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="25"/>
+    <col min="3" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
         <v>174</v>
       </c>
@@ -9193,8 +9193,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="41" t="s">
         <v>3</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="41" t="s">
         <v>6</v>
       </c>
@@ -9229,7 +9229,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="41" t="s">
         <v>7</v>
       </c>
@@ -9240,10 +9240,10 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
         <v>10</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -9298,7 +9298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
         <v>12</v>
       </c>
@@ -9396,18 +9396,18 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>-2.3927E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>17</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>1.8599000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>21</v>
       </c>
@@ -9811,7 +9811,7 @@
         <v>2.8872999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>23</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>-5.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>27</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>6.9309999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>29</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>4.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>31</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>3.2424000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>33</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>36</v>
       </c>
@@ -10518,12 +10518,12 @@
         <v>1.7170999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>39</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>-5.385E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>41</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>43</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>-2.9E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>44</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>45</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" ht="12" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>46</v>
       </c>
@@ -11129,13 +11129,13 @@
         <v>-5.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:33" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="31" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>48</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>49</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
         <v>50</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>51</v>
       </c>
@@ -11539,7 +11539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>52</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="28" t="s">
         <v>54</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>55</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
         <v>56</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>57</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
         <v>58</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" ht="12" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
         <v>60</v>
       </c>
@@ -12246,12 +12246,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" ht="12" x14ac:dyDescent="0.2">
       <c r="B48" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>62</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28" t="s">
         <v>63</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>64</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28" t="s">
         <v>65</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>66</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="28" t="s">
         <v>67</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>68</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>69</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>70</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>71</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
         <v>72</v>
       </c>
@@ -13362,7 +13362,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
         <v>73</v>
       </c>
@@ -13463,12 +13463,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28" t="s">
         <v>75</v>
       </c>
@@ -13569,7 +13569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>76</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>77</v>
       </c>
@@ -13771,7 +13771,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>78</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>79</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>80</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>81</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>82</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>83</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>84</v>
       </c>
@@ -14478,8 +14478,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:33" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>85</v>
       </c>
@@ -14580,12 +14580,12 @@
         <v>1.6822E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
         <v>88</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>-5.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>89</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="28" t="s">
         <v>91</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>1.1887E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28" t="s">
         <v>93</v>
       </c>
@@ -14989,7 +14989,7 @@
         <v>5.5900000000000004E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="28" t="s">
         <v>95</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>4.9362000000000003E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28" t="s">
         <v>96</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>1.895E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
         <v>98</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>3.9856000000000003E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
         <v>99</v>
       </c>
@@ -15393,133 +15393,133 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:33" ht="12" x14ac:dyDescent="0.2">
       <c r="B92" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="37" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="37" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="37" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="37" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="37" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="2:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:33" ht="12" x14ac:dyDescent="0.2">
       <c r="B101" s="37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="2:33" ht="12" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:33" ht="12" x14ac:dyDescent="0.2">
       <c r="B102" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="37" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="37" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="48"/>
       <c r="C112" s="48"/>
       <c r="D112" s="48"/>
@@ -15553,16 +15553,16 @@
       <c r="AF112" s="48"/>
       <c r="AG112" s="48"/>
     </row>
-    <row r="141" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="308" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="48"/>
       <c r="C308" s="48"/>
       <c r="D308" s="48"/>
@@ -15596,7 +15596,7 @@
       <c r="AF308" s="48"/>
       <c r="AG308" s="48"/>
     </row>
-    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="48"/>
       <c r="C511" s="48"/>
       <c r="D511" s="48"/>
@@ -15630,7 +15630,7 @@
       <c r="AF511" s="48"/>
       <c r="AG511" s="48"/>
     </row>
-    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B712" s="48"/>
       <c r="C712" s="48"/>
       <c r="D712" s="48"/>
@@ -15664,7 +15664,7 @@
       <c r="AF712" s="48"/>
       <c r="AG712" s="48"/>
     </row>
-    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B887" s="48"/>
       <c r="C887" s="48"/>
       <c r="D887" s="48"/>
@@ -15698,7 +15698,7 @@
       <c r="AF887" s="48"/>
       <c r="AG887" s="48"/>
     </row>
-    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1100" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1100" s="48"/>
       <c r="C1100" s="48"/>
       <c r="D1100" s="48"/>
@@ -15732,7 +15732,7 @@
       <c r="AF1100" s="48"/>
       <c r="AG1100" s="48"/>
     </row>
-    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1227" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1227" s="48"/>
       <c r="C1227" s="48"/>
       <c r="D1227" s="48"/>
@@ -15766,7 +15766,7 @@
       <c r="AF1227" s="48"/>
       <c r="AG1227" s="48"/>
     </row>
-    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1390" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1390" s="48"/>
       <c r="C1390" s="48"/>
       <c r="D1390" s="48"/>
@@ -15800,7 +15800,7 @@
       <c r="AF1390" s="48"/>
       <c r="AG1390" s="48"/>
     </row>
-    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1502" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1502" s="48"/>
       <c r="C1502" s="48"/>
       <c r="D1502" s="48"/>
@@ -15834,7 +15834,7 @@
       <c r="AF1502" s="48"/>
       <c r="AG1502" s="48"/>
     </row>
-    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1604" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1604" s="48"/>
       <c r="C1604" s="48"/>
       <c r="D1604" s="48"/>
@@ -15868,7 +15868,7 @@
       <c r="AF1604" s="48"/>
       <c r="AG1604" s="48"/>
     </row>
-    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1698" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1698" s="48"/>
       <c r="C1698" s="48"/>
       <c r="D1698" s="48"/>
@@ -15902,7 +15902,7 @@
       <c r="AF1698" s="48"/>
       <c r="AG1698" s="48"/>
     </row>
-    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1945" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1945" s="48"/>
       <c r="C1945" s="48"/>
       <c r="D1945" s="48"/>
@@ -15936,7 +15936,7 @@
       <c r="AF1945" s="48"/>
       <c r="AG1945" s="48"/>
     </row>
-    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2031" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2031" s="48"/>
       <c r="C2031" s="48"/>
       <c r="D2031" s="48"/>
@@ -15970,7 +15970,7 @@
       <c r="AF2031" s="48"/>
       <c r="AG2031" s="48"/>
     </row>
-    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2153" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2153" s="48"/>
       <c r="C2153" s="48"/>
       <c r="D2153" s="48"/>
@@ -16004,7 +16004,7 @@
       <c r="AF2153" s="48"/>
       <c r="AG2153" s="48"/>
     </row>
-    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2317" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2317" s="48"/>
       <c r="C2317" s="48"/>
       <c r="D2317" s="48"/>
@@ -16038,7 +16038,7 @@
       <c r="AF2317" s="48"/>
       <c r="AG2317" s="48"/>
     </row>
-    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2419" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2419" s="48"/>
       <c r="C2419" s="48"/>
       <c r="D2419" s="48"/>
@@ -16072,7 +16072,7 @@
       <c r="AF2419" s="48"/>
       <c r="AG2419" s="48"/>
     </row>
-    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2509" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2509" s="48"/>
       <c r="C2509" s="48"/>
       <c r="D2509" s="48"/>
@@ -16106,7 +16106,7 @@
       <c r="AF2509" s="48"/>
       <c r="AG2509" s="48"/>
     </row>
-    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2598" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2598" s="48"/>
       <c r="C2598" s="48"/>
       <c r="D2598" s="48"/>
@@ -16140,7 +16140,7 @@
       <c r="AF2598" s="48"/>
       <c r="AG2598" s="48"/>
     </row>
-    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2719" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2719" s="48"/>
       <c r="C2719" s="48"/>
       <c r="D2719" s="48"/>
@@ -16174,7 +16174,7 @@
       <c r="AF2719" s="48"/>
       <c r="AG2719" s="48"/>
     </row>
-    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2837" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2837" s="48"/>
       <c r="C2837" s="48"/>
       <c r="D2837" s="48"/>
@@ -16210,6 +16210,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2719:AG2719"/>
+    <mergeCell ref="B2837:AG2837"/>
+    <mergeCell ref="B2031:AG2031"/>
+    <mergeCell ref="B2153:AG2153"/>
+    <mergeCell ref="B2317:AG2317"/>
+    <mergeCell ref="B2419:AG2419"/>
+    <mergeCell ref="B2509:AG2509"/>
+    <mergeCell ref="B2598:AG2598"/>
     <mergeCell ref="B1945:AG1945"/>
     <mergeCell ref="B112:AG112"/>
     <mergeCell ref="B308:AG308"/>
@@ -16222,14 +16230,6 @@
     <mergeCell ref="B1502:AG1502"/>
     <mergeCell ref="B1604:AG1604"/>
     <mergeCell ref="B1698:AG1698"/>
-    <mergeCell ref="B2719:AG2719"/>
-    <mergeCell ref="B2837:AG2837"/>
-    <mergeCell ref="B2031:AG2031"/>
-    <mergeCell ref="B2153:AG2153"/>
-    <mergeCell ref="B2317:AG2317"/>
-    <mergeCell ref="B2419:AG2419"/>
-    <mergeCell ref="B2509:AG2509"/>
-    <mergeCell ref="B2598:AG2598"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -16247,13 +16247,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>124</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>3968</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
     </row>
   </sheetData>
@@ -16290,12 +16290,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>181</v>
       </c>
@@ -16303,12 +16303,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\GBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFA060A-0CE5-4A69-9A11-02A48A4DAA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208FE68-64E5-4108-BF53-8E7FAC0EFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1658,7 +1658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16210,14 +16210,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2719:AG2719"/>
-    <mergeCell ref="B2837:AG2837"/>
-    <mergeCell ref="B2031:AG2031"/>
-    <mergeCell ref="B2153:AG2153"/>
-    <mergeCell ref="B2317:AG2317"/>
-    <mergeCell ref="B2419:AG2419"/>
-    <mergeCell ref="B2509:AG2509"/>
-    <mergeCell ref="B2598:AG2598"/>
     <mergeCell ref="B1945:AG1945"/>
     <mergeCell ref="B112:AG112"/>
     <mergeCell ref="B308:AG308"/>
@@ -16230,6 +16222,14 @@
     <mergeCell ref="B1502:AG1502"/>
     <mergeCell ref="B1604:AG1604"/>
     <mergeCell ref="B1698:AG1698"/>
+    <mergeCell ref="B2719:AG2719"/>
+    <mergeCell ref="B2837:AG2837"/>
+    <mergeCell ref="B2031:AG2031"/>
+    <mergeCell ref="B2153:AG2153"/>
+    <mergeCell ref="B2317:AG2317"/>
+    <mergeCell ref="B2419:AG2419"/>
+    <mergeCell ref="B2509:AG2509"/>
+    <mergeCell ref="B2598:AG2598"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -16286,8 +16286,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16308,7 +16308,7 @@
         <v>182</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
